--- a/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Edad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10922</v>
+        <v>9728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007988252131561497</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03012890946102072</v>
+        <v>0.02683632404208167</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9591</v>
+        <v>9827</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.003759338074264925</v>
+        <v>0.003759338074264924</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01245153847970408</v>
+        <v>0.01275777593405947</v>
       </c>
     </row>
     <row r="5">
@@ -817,16 +817,16 @@
         <v>359616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>351590</v>
+        <v>352784</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9920117478684385</v>
+        <v>0.9920117478684384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9698710905389796</v>
+        <v>0.9731636759579166</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>767409</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760714</v>
+        <v>760478</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
@@ -847,7 +847,7 @@
         <v>0.9962406619257351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9875484615202964</v>
+        <v>0.9872422240659408</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>6563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14358</v>
+        <v>15631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01376292548869719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004672411122499708</v>
+        <v>0.004668319276621623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03010804623148286</v>
+        <v>0.03277775701847872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -963,19 +963,19 @@
         <v>9462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4151</v>
+        <v>4350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17586</v>
+        <v>17877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01888331754078907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008284805174611718</v>
+        <v>0.008681541365349319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03509662301800526</v>
+        <v>0.0356776559024984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -984,19 +984,19 @@
         <v>16026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8993</v>
+        <v>8795</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26555</v>
+        <v>26765</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01638645491116789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009195378996857295</v>
+        <v>0.008992979862340864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02715352226715291</v>
+        <v>0.02736817024108158</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>470327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462532</v>
+        <v>461259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474662</v>
+        <v>474664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862370745113028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698919537685174</v>
+        <v>0.9672222429815208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9953275888775005</v>
+        <v>0.9953316807233784</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -1034,19 +1034,19 @@
         <v>491621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483497</v>
+        <v>483206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496932</v>
+        <v>496733</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9811166824592109</v>
+        <v>0.9811166824592108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.964903376981995</v>
+        <v>0.9643223440975018</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9917151948253884</v>
+        <v>0.9913184586346507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>748</v>
@@ -1055,19 +1055,19 @@
         <v>961947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951418</v>
+        <v>951208</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968980</v>
+        <v>969178</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.983613545088832</v>
+        <v>0.9836135450888321</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972846477732847</v>
+        <v>0.9726318297589184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9908046210031426</v>
+        <v>0.9910070201376592</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>20796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13121</v>
+        <v>13115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32313</v>
+        <v>33021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03349667733625569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02113372385821144</v>
+        <v>0.02112468812471224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05204692837859971</v>
+        <v>0.0531875829903637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1180,19 +1180,19 @@
         <v>27797</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19645</v>
+        <v>20097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38049</v>
+        <v>37657</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04472622096402112</v>
+        <v>0.04472622096402114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03160949336059461</v>
+        <v>0.03233635605772467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0612219365322723</v>
+        <v>0.06059134861307204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1201,19 +1201,19 @@
         <v>48593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37075</v>
+        <v>36930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62663</v>
+        <v>62041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03911439294835852</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02984334797681858</v>
+        <v>0.02972648624698313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05044015610356071</v>
+        <v>0.04993969267513808</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>600041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588524</v>
+        <v>587816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607716</v>
+        <v>607722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9665033226637444</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9479530716214004</v>
+        <v>0.946812417009636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9788662761417887</v>
+        <v>0.9788753118752876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>808</v>
@@ -1251,19 +1251,19 @@
         <v>593691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583439</v>
+        <v>583831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>601843</v>
+        <v>601391</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9552737790359789</v>
+        <v>0.955273779035979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9387780634677273</v>
+        <v>0.939408651386928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683905066394054</v>
+        <v>0.9676636439422752</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -1272,19 +1272,19 @@
         <v>1193732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1179662</v>
+        <v>1180284</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1205250</v>
+        <v>1205395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9608856070516416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9495598438964393</v>
+        <v>0.950060307324862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9701566520231815</v>
+        <v>0.970273513753017</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>36054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25476</v>
+        <v>25006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48492</v>
+        <v>50611</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05146015841641953</v>
+        <v>0.05146015841641952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03636168375255451</v>
+        <v>0.03569165245593989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06921285756582063</v>
+        <v>0.07223814213850649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -1397,19 +1397,19 @@
         <v>53640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43712</v>
+        <v>43277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65797</v>
+        <v>65032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07283096704605076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05935199008266816</v>
+        <v>0.05876032857128195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08933865168157953</v>
+        <v>0.08829960497535169</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -1418,19 +1418,19 @@
         <v>89694</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74014</v>
+        <v>74478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108713</v>
+        <v>107868</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06241232636026851</v>
+        <v>0.06241232636026852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05150224305218307</v>
+        <v>0.05182469728008924</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07564704526423641</v>
+        <v>0.07505914600989658</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>664563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>652125</v>
+        <v>650006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675141</v>
+        <v>675611</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9485398415835806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9307871424341793</v>
+        <v>0.9277618578614933</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9636383162474456</v>
+        <v>0.96430834754406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1055</v>
@@ -1468,19 +1468,19 @@
         <v>682855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670698</v>
+        <v>671463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692783</v>
+        <v>693218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9271690329539491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9106613483184212</v>
+        <v>0.9117003950246485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9406480099173319</v>
+        <v>0.9412396714287181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1686</v>
@@ -1489,19 +1489,19 @@
         <v>1347418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1328399</v>
+        <v>1329244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1363098</v>
+        <v>1362634</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9375876736397313</v>
+        <v>0.9375876736397314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9243529547357636</v>
+        <v>0.9249408539901032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9484977569478168</v>
+        <v>0.9481753027199107</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>31989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23121</v>
+        <v>23719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42540</v>
+        <v>44032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0526695633389213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03806763806332037</v>
+        <v>0.03905257611629342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07004007708219927</v>
+        <v>0.07249645573366068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -1614,19 +1614,19 @@
         <v>66766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55415</v>
+        <v>55273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78958</v>
+        <v>79504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1100359228362375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09132858664622553</v>
+        <v>0.09109538232373111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1301298635138705</v>
+        <v>0.1310300923340009</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1635,19 +1635,19 @@
         <v>98755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83919</v>
+        <v>84209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116123</v>
+        <v>114641</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08133866917208368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06911920461171497</v>
+        <v>0.06935754611128679</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09564295123392408</v>
+        <v>0.09442271044947252</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>575372</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>564821</v>
+        <v>563329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>584240</v>
+        <v>583642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9473304366610787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9299599229178006</v>
+        <v>0.9275035442663395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9619323619366794</v>
+        <v>0.9609474238837065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>889</v>
@@ -1685,19 +1685,19 @@
         <v>539999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>527807</v>
+        <v>527261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>551350</v>
+        <v>551492</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8899640771637625</v>
+        <v>0.8899640771637627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8698701364861295</v>
+        <v>0.8689699076659994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9086714133537753</v>
+        <v>0.908904617676269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1513</v>
@@ -1706,19 +1706,19 @@
         <v>1115371</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1098003</v>
+        <v>1099485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1130207</v>
+        <v>1129917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9186613308279161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9043570487660758</v>
+        <v>0.9055772895505275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9308807953882849</v>
+        <v>0.9306424538887131</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>32628</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24358</v>
+        <v>24945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41676</v>
+        <v>42931</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0804965103358226</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06009252228496662</v>
+        <v>0.06154092816139856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1028172296832233</v>
+        <v>0.1059140538633975</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -1831,19 +1831,19 @@
         <v>52316</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43024</v>
+        <v>43346</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61666</v>
+        <v>62627</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1193065911592449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09811721168594566</v>
+        <v>0.0988511149846235</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1406302611820642</v>
+        <v>0.1428219228020004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -1852,19 +1852,19 @@
         <v>84944</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73686</v>
+        <v>72357</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99220</v>
+        <v>99136</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1006640417919556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08732289441890098</v>
+        <v>0.08574787860254628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1175815958185554</v>
+        <v>0.1174823742503183</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>372712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>363664</v>
+        <v>362409</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>380982</v>
+        <v>380395</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9195034896641775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8971827703167766</v>
+        <v>0.8940859461366026</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9399074777150332</v>
+        <v>0.9384590718386013</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>725</v>
@@ -1902,19 +1902,19 @@
         <v>386182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>376832</v>
+        <v>375871</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>395474</v>
+        <v>395152</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8806934088407552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.859369738817936</v>
+        <v>0.8571780771979997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9018827883140543</v>
+        <v>0.9011488850153765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1243</v>
@@ -1923,19 +1923,19 @@
         <v>758894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>744618</v>
+        <v>744702</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>770152</v>
+        <v>771481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8993359582080445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8824184041814447</v>
+        <v>0.8825176257496818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9126771055810992</v>
+        <v>0.9142521213974538</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>35698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27666</v>
+        <v>27869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45411</v>
+        <v>45145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.115080865413145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08918809036664192</v>
+        <v>0.08984382325714031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1463936456498211</v>
+        <v>0.1455350304188566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>219</v>
@@ -2048,19 +2048,19 @@
         <v>105458</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91775</v>
+        <v>92263</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119700</v>
+        <v>119381</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2269827480678725</v>
+        <v>0.2269827480678724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1975311995394144</v>
+        <v>0.1985817012128641</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2576367014600583</v>
+        <v>0.2569487222858817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>281</v>
@@ -2069,19 +2069,19 @@
         <v>141156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124828</v>
+        <v>125244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157142</v>
+        <v>157842</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1821822160853382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1611083928983469</v>
+        <v>0.1616452193251912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2028145987216259</v>
+        <v>0.2037179595292607</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>274500</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>264787</v>
+        <v>265053</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>282532</v>
+        <v>282329</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8849191345868548</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8536063543501788</v>
+        <v>0.8544649695811433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9108119096333581</v>
+        <v>0.9101561767428595</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>662</v>
@@ -2119,19 +2119,19 @@
         <v>359151</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>344909</v>
+        <v>345228</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>372834</v>
+        <v>372346</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7730172519321274</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7423632985399417</v>
+        <v>0.7430512777141184</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8024688004605854</v>
+        <v>0.801418298787136</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1058</v>
@@ -2140,19 +2140,19 @@
         <v>633651</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>617665</v>
+        <v>616965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>649979</v>
+        <v>649563</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8178177839146619</v>
+        <v>0.8178177839146618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.797185401278374</v>
+        <v>0.7962820404707399</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.838891607101653</v>
+        <v>0.8383547806748092</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>163729</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>563</v>
@@ -2265,19 +2265,19 @@
         <v>318334</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08531113403839566</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>771</v>
@@ -2286,19 +2286,19 @@
         <v>482063</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06639544731081035</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>3365308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3341640</v>
+        <v>3340187</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3386096</v>
+        <v>3386731</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9536051762732772</v>
+        <v>0.953605176273277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9468985600306278</v>
+        <v>0.9464867093432084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9594956267320527</v>
+        <v>0.9596757455270402</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4795</v>
@@ -2336,19 +2336,19 @@
         <v>3413116</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3386994</v>
+        <v>3384719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3442771</v>
+        <v>3439687</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9146888659616045</v>
+        <v>0.9146888659616044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.907688404729067</v>
+        <v>0.9070786929918424</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9226361126970547</v>
+        <v>0.921809878699495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7959</v>
@@ -2357,19 +2357,19 @@
         <v>6778424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6741648</v>
+        <v>6743451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6811493</v>
+        <v>6812739</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9336045526891896</v>
+        <v>0.9336045526891897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9285393202051911</v>
+        <v>0.9287876994802733</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9381592559543073</v>
+        <v>0.9383308177816225</v>
       </c>
     </row>
     <row r="27">
